--- a/db_operation/a.xlsx
+++ b/db_operation/a.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="615" windowWidth="19095" windowHeight="6975"/>
+    <workbookView xWindow="150" yWindow="570" windowWidth="14775" windowHeight="3825"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -55,13 +55,13 @@
     <t>POI1</t>
   </si>
   <si>
+    <t>女</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
     <t>POI2</t>
-  </si>
-  <si>
-    <t>女</t>
   </si>
   <si>
     <t>3</t>
@@ -665,7 +665,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="18"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1054,7 +1054,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -1107,13 +1107,13 @@
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>9</v>
@@ -1147,7 +1147,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
@@ -1164,7 +1164,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>9</v>
@@ -1181,7 +1181,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>9</v>
@@ -1198,7 +1198,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
@@ -1215,7 +1215,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>9</v>
@@ -1232,7 +1232,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>9</v>
@@ -1249,7 +1249,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
@@ -1266,7 +1266,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>9</v>
@@ -1283,7 +1283,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>9</v>
@@ -1300,7 +1300,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>9</v>
@@ -1317,7 +1317,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>9</v>
@@ -1334,7 +1334,7 @@
         <v>41</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>9</v>
@@ -1351,7 +1351,7 @@
         <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>9</v>
@@ -1368,7 +1368,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>9</v>
@@ -1385,7 +1385,7 @@
         <v>47</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>9</v>
@@ -1402,7 +1402,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>9</v>
@@ -1419,7 +1419,7 @@
         <v>51</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>9</v>
@@ -1436,7 +1436,7 @@
         <v>53</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>9</v>
@@ -1453,7 +1453,7 @@
         <v>55</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>9</v>
@@ -1470,7 +1470,7 @@
         <v>57</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>9</v>
@@ -1487,7 +1487,7 @@
         <v>59</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>9</v>
@@ -1504,7 +1504,7 @@
         <v>61</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>9</v>
@@ -1521,7 +1521,7 @@
         <v>63</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>9</v>
@@ -1538,7 +1538,7 @@
         <v>65</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>9</v>
@@ -1555,7 +1555,7 @@
         <v>67</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>9</v>
@@ -1572,7 +1572,7 @@
         <v>69</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>9</v>
@@ -1589,7 +1589,7 @@
         <v>71</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>9</v>
@@ -1606,7 +1606,7 @@
         <v>73</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>9</v>
@@ -1623,7 +1623,7 @@
         <v>75</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>9</v>
@@ -1640,7 +1640,7 @@
         <v>77</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>9</v>
@@ -1657,7 +1657,7 @@
         <v>79</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>9</v>
@@ -1674,7 +1674,7 @@
         <v>81</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>9</v>
@@ -1691,7 +1691,7 @@
         <v>83</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>9</v>
@@ -1708,7 +1708,7 @@
         <v>85</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>9</v>
@@ -1725,7 +1725,7 @@
         <v>87</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>9</v>
@@ -1742,7 +1742,7 @@
         <v>89</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>9</v>
@@ -1759,7 +1759,7 @@
         <v>91</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>9</v>
@@ -1776,7 +1776,7 @@
         <v>93</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>9</v>
@@ -1793,7 +1793,7 @@
         <v>95</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
@@ -1810,7 +1810,7 @@
         <v>97</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>9</v>
@@ -1827,7 +1827,7 @@
         <v>99</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>9</v>
@@ -1844,7 +1844,7 @@
         <v>101</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>9</v>
@@ -1861,7 +1861,7 @@
         <v>103</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>9</v>
@@ -1878,7 +1878,7 @@
         <v>105</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>9</v>
@@ -1895,7 +1895,7 @@
         <v>107</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>9</v>
@@ -1912,7 +1912,7 @@
         <v>109</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>9</v>
@@ -1929,7 +1929,7 @@
         <v>111</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>9</v>
@@ -1946,7 +1946,7 @@
         <v>113</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>9</v>
@@ -1963,7 +1963,7 @@
         <v>115</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>9</v>
@@ -1980,7 +1980,7 @@
         <v>117</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>9</v>
@@ -1997,7 +1997,7 @@
         <v>119</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>9</v>
@@ -2014,7 +2014,7 @@
         <v>121</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>9</v>
@@ -2031,7 +2031,7 @@
         <v>123</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>9</v>
@@ -2048,7 +2048,7 @@
         <v>125</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>9</v>
@@ -2065,7 +2065,7 @@
         <v>127</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>9</v>
@@ -2082,7 +2082,7 @@
         <v>129</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>9</v>
@@ -2099,7 +2099,7 @@
         <v>131</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>9</v>
@@ -2116,7 +2116,7 @@
         <v>133</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>9</v>
@@ -2133,7 +2133,7 @@
         <v>135</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>9</v>
@@ -2150,7 +2150,7 @@
         <v>137</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>9</v>
@@ -2167,7 +2167,7 @@
         <v>139</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>9</v>
@@ -2184,7 +2184,7 @@
         <v>141</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>9</v>
@@ -2201,7 +2201,7 @@
         <v>143</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>9</v>
@@ -2218,7 +2218,7 @@
         <v>145</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>9</v>
@@ -2235,7 +2235,7 @@
         <v>147</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>9</v>
@@ -2252,7 +2252,7 @@
         <v>149</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>9</v>
@@ -2269,7 +2269,7 @@
         <v>151</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>9</v>
@@ -2286,7 +2286,7 @@
         <v>153</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>9</v>
@@ -2303,7 +2303,7 @@
         <v>155</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>9</v>
@@ -2320,7 +2320,7 @@
         <v>157</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>9</v>
@@ -2337,7 +2337,7 @@
         <v>159</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>9</v>
@@ -2354,7 +2354,7 @@
         <v>161</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>9</v>
@@ -2371,7 +2371,7 @@
         <v>163</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>9</v>
@@ -2388,7 +2388,7 @@
         <v>165</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>9</v>
@@ -2405,7 +2405,7 @@
         <v>167</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>9</v>
@@ -2422,7 +2422,7 @@
         <v>169</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>9</v>
@@ -2439,7 +2439,7 @@
         <v>171</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>9</v>
@@ -2456,7 +2456,7 @@
         <v>173</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>9</v>
@@ -2473,7 +2473,7 @@
         <v>175</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>9</v>
@@ -2490,7 +2490,7 @@
         <v>177</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>9</v>
@@ -2507,7 +2507,7 @@
         <v>179</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>9</v>
@@ -2524,7 +2524,7 @@
         <v>181</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>9</v>
@@ -2541,7 +2541,7 @@
         <v>183</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>9</v>
@@ -2558,7 +2558,7 @@
         <v>185</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>9</v>
@@ -2575,7 +2575,7 @@
         <v>187</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>9</v>
@@ -2592,7 +2592,7 @@
         <v>189</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>9</v>
@@ -2609,7 +2609,7 @@
         <v>191</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>9</v>
@@ -2626,7 +2626,7 @@
         <v>193</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>9</v>
@@ -2643,7 +2643,7 @@
         <v>195</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>9</v>
@@ -2660,7 +2660,7 @@
         <v>197</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>9</v>
@@ -2677,7 +2677,7 @@
         <v>199</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>9</v>
@@ -2694,7 +2694,7 @@
         <v>201</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>9</v>
@@ -2711,7 +2711,7 @@
         <v>203</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>9</v>
@@ -2728,7 +2728,7 @@
         <v>205</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>9</v>
@@ -2745,7 +2745,7 @@
         <v>207</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>9</v>
@@ -2762,7 +2762,7 @@
         <v>209</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>9</v>
